--- a/buko.xlsx
+++ b/buko.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\Shiny-R\ds_wordcloud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\Shiny-R\prueba_nube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF31D84D-8E1D-445A-94A4-886C0AA936CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A98132-8302-45B4-B7FD-1EEBE0C77B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t xml:space="preserve">La canción desesperada </t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>tx1</t>
+  </si>
+  <si>
+    <t>tx2</t>
+  </si>
+  <si>
+    <t>tx3</t>
+  </si>
+  <si>
+    <t>Buenos días a todos. Quisiera empezar este discurso reconociendo la importancia del apoyo de nuestras familias para que hayamos logrado llegar hasta aquí. Cuenta la leyenda que las filologías son titulaciones sin salidas o con salidas muy limitadas. He de decir que tras haber terminado la carrera aún no tengo muy claro que esto sea solo una leyenda, pero a pesar de todo, el apoyo que he recibido por parte de mis padres y familiares ha sido incondicional, y estoy seguro de que así ha sido por parte de todas las familias que se encuentran aquí presentes. Por ello, creo que este aplauso que ahora os damos lo tenéis más que merecido. En segundo lugar, creo que el reconocimiento a la labor de los profesores es también merecido. Especialmente a aquellos que se han preocupado por que aprendiéramos y reflexionáramos y que han mostrado interés por saber nuestra opinión acerca de la metodología que utilizan. El proceso de compartir conocimientos no depende de las figuras de maestro y aprendiz por separado, ya que ambos forman parte de una cadena que, si tiene fisuras, sencillamente no funciona. De hecho, esta cadena no tiene por qué ser unidireccional; el profesor también puede aprender y enriquecerse con el alumno, especialmente en este tipo de carreras. Así pues, creo que deberíamos estarles agradecidos y huir de discursos demagogos que insisten en decir que enseñar es su trabajo y obligación, ya que pagamos su sueldo. Si estamos agradecidos a cualquier profesional que desarrolle su labor adecuadamente, debemos del mismo modo estarles agradecidos a los profesores, con especial mención a aquellos de los que acabo de hablar, ya que son ellos los que entienden que la educación es la base sobre la que se sustenta cualquier sociedad. Sin educación, todo lo demás se derrumba. Si me lo permitís, me gustaría compartir con vosotros una pequeña anécdota personal para continuar. Tuve la suerte de terminar la educación secundaria con una buena media y al terminar la selectividad, un pariente (no muy cercano, afortunadamente) me preguntó qué iba a estudiar. Al responderle “filología inglesa”, él se burló, ya que consideraba que, al ser una carrera con un cinco como nota de corte, debía optar por otra con una nota de acceso más alta, como una ingeniería, biología, o alguna que fuera “útil para la sociedad”, tal y como él decía. Cinco años después, tengo miles de motivos para, como poco, sonrojarle. Si de algo me ha valido esta carrera es para darme cuenta de la importancia que tiene pensar por ti mismo (o al menos intentarlo), así como tener una actitud crítica, y esto es algo que no muchas carreras enseñan. Aunque filología no es filosofía, con ella hemos conocido lo que muchos de los escritores más importantes de la historia tenían que decir acerca de muchas facetas de la naturaleza humana, haciéndonos reflexionar y despertando nuestro espíritu crítico, fomentando así el pensamiento libre. Además, todo esto venía acompañado por el estudio de la lengua y su funcionamiento, así como el marco histórico-cultural que acompañó a estos autores y al idioma. Con lo cual, me atrevería a decir que al estudiar filología hemos añadido el componente del arte al estudio del pensamiento y el componente del pensamiento al estudio del arte. Y hablando de filosofía, voy a tomarme la licencia de usar al recientemente fallecido José Luis Sampedro como referente filosófico. Sampedro solía decir que deberíamos ser educados y preparados para pensar libremente, ya que la libertad de expresión es inútil si no existe libertad de pensamiento. Es decir, sin libertad de pensamiento la libertad de expresión no es más que una copia o reflejo de lo que se nos dice. Por tanto, me gustaría aprovechar esta oportunidad para reivindicar la importancia de estudiar letras y humanidades, especialmente en el mundo en que vivimos, donde parece que solo hay hueco para palabras como “competitividad”, “negocio” o “beneficio”. Creo que ahora es un buen momento para ponerse melancólico. La mayoría de los aquí presentes hemos estado cinco años estudiando en esta facultad. Una facultad que, pese a parecer un cuarto de baño de grandes dimensiones, ha sido nuestra segunda casa y ha visto cómo en ella conocíamos personas maravillosas que acabarían siendo nuestros amigos y amigas para siempre. Y lo de “para siempre” no lo digo por decir, ya que si hemos aguantado cinco años seguidos viéndonos las caras que lucimos a las 8:30 de la mañana, ¿qué no seremos capaces de hacer ahora que el contacto no va a ser tan intenso? Y ahora, tras estos cinco años, que al menos para mí han sido como un parpadeo, nos vemos ante una situación nueva, con muchos posibles caminos que tomar y pocos ofreciendo un futuro esperanzador. Pese a todo, quiero hacer una llamada al optimismo, porque si hemos aguantado cinco años viéndonos las caras que lucimos a las 8:30 de la mañana, ¿qué no seremos capaces de hacer en los próximos años? Querría, antes de terminar, recordar la importancia de seguir luchando en defensa de la educación pública. No es mi intención dar ningún mitin, pero considero que recae en nosotros -alumnos, profesores y familias- la obligación y la responsabilidad de hacer todo lo que esté en nuestra mano para detener este proceso de desmantelamiento de un sistema que, sin ser perfecto, es el que más garantías ofrece y el único que asegura la igualdad de oportunidades. Por tanto, habría que reforzarlo en vez de destruirlo, dando así paso a un sistema elitista. Antes he utilizado el referente filosófico de José Luis Sampedro. Ahora, para concluir el discurso, me gustaría citar a otro gran referente para mí: mi abuela Petra. Hace casi dos años, cuando empezaron las movilizaciones en contra del plan privatizador de la enseñanza en la Comunidad de Madrid, mi abuela me preguntó que a qué venía tanto revuelo. Yo le resumí los motivos de las protestas contándole que, como consecuencia de dicho plan, la escuela pública quedaría reducida a un simple gueto para los alumnos procedentes de familias menos afortunadas, dejando a los colegios privados como receptores de los mayores recursos y privilegios. En definitiva, le dije, de continuar este plan privatizador, para acceder a una educación de calidad habría que pertenecer a una familia más bien adinerada. Tras pensar en ello unos instantes, me respondió con cara de desconcierto: “vaya, entonces todo sería como hace 70 años, cuando yo era joven”. Para ella era fácil deducir que este proceso suponía un flagrante paso atrás. Durante los siguientes minutos me estuvo hablando de cómo solía ser la educación hace unas cuantas décadas y, en un momento determinado, me confesó que para ella había sido muy duro no poder dar a sus hijas la educación que le habría gustado que tuvieran, ya que no se lo podían permitir, y que esa era la gran espina que todavía tenía clavada desde entonces. Es por ello que utilizo los últimos segundos de que dispongo para insistir en la importancia de no resignarse ni rendirse ante esta injusticia. Los miembros de la comunidad educativa debemos responder contundentemente con todos los medios que tengamos para detener este ataque. Sigamos luchando para que la educación siga siendo pública y de calidad y para que no nos quiten lo que hemos ganado. Para demostrar, también, que no pueden insultar a nuestra inteligencia sin tener respuesta. Pero sigamos luchando sobre todo, para que en el futuro no haya más espinas clavadas. Muchas gracias.</t>
   </si>
 </sst>
 </file>
@@ -562,91 +571,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A5D942-03C0-43FE-878D-B03196BAFD2B}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>

--- a/buko.xlsx
+++ b/buko.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\Shiny-R\prueba_nube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A98132-8302-45B4-B7FD-1EEBE0C77B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A1B871-F054-4F0F-A977-C613635425DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="59">
   <si>
     <t xml:space="preserve">La canción desesperada </t>
   </si>
@@ -202,15 +202,6 @@
   </si>
   <si>
     <t>tx1</t>
-  </si>
-  <si>
-    <t>tx2</t>
-  </si>
-  <si>
-    <t>tx3</t>
-  </si>
-  <si>
-    <t>Buenos días a todos. Quisiera empezar este discurso reconociendo la importancia del apoyo de nuestras familias para que hayamos logrado llegar hasta aquí. Cuenta la leyenda que las filologías son titulaciones sin salidas o con salidas muy limitadas. He de decir que tras haber terminado la carrera aún no tengo muy claro que esto sea solo una leyenda, pero a pesar de todo, el apoyo que he recibido por parte de mis padres y familiares ha sido incondicional, y estoy seguro de que así ha sido por parte de todas las familias que se encuentran aquí presentes. Por ello, creo que este aplauso que ahora os damos lo tenéis más que merecido. En segundo lugar, creo que el reconocimiento a la labor de los profesores es también merecido. Especialmente a aquellos que se han preocupado por que aprendiéramos y reflexionáramos y que han mostrado interés por saber nuestra opinión acerca de la metodología que utilizan. El proceso de compartir conocimientos no depende de las figuras de maestro y aprendiz por separado, ya que ambos forman parte de una cadena que, si tiene fisuras, sencillamente no funciona. De hecho, esta cadena no tiene por qué ser unidireccional; el profesor también puede aprender y enriquecerse con el alumno, especialmente en este tipo de carreras. Así pues, creo que deberíamos estarles agradecidos y huir de discursos demagogos que insisten en decir que enseñar es su trabajo y obligación, ya que pagamos su sueldo. Si estamos agradecidos a cualquier profesional que desarrolle su labor adecuadamente, debemos del mismo modo estarles agradecidos a los profesores, con especial mención a aquellos de los que acabo de hablar, ya que son ellos los que entienden que la educación es la base sobre la que se sustenta cualquier sociedad. Sin educación, todo lo demás se derrumba. Si me lo permitís, me gustaría compartir con vosotros una pequeña anécdota personal para continuar. Tuve la suerte de terminar la educación secundaria con una buena media y al terminar la selectividad, un pariente (no muy cercano, afortunadamente) me preguntó qué iba a estudiar. Al responderle “filología inglesa”, él se burló, ya que consideraba que, al ser una carrera con un cinco como nota de corte, debía optar por otra con una nota de acceso más alta, como una ingeniería, biología, o alguna que fuera “útil para la sociedad”, tal y como él decía. Cinco años después, tengo miles de motivos para, como poco, sonrojarle. Si de algo me ha valido esta carrera es para darme cuenta de la importancia que tiene pensar por ti mismo (o al menos intentarlo), así como tener una actitud crítica, y esto es algo que no muchas carreras enseñan. Aunque filología no es filosofía, con ella hemos conocido lo que muchos de los escritores más importantes de la historia tenían que decir acerca de muchas facetas de la naturaleza humana, haciéndonos reflexionar y despertando nuestro espíritu crítico, fomentando así el pensamiento libre. Además, todo esto venía acompañado por el estudio de la lengua y su funcionamiento, así como el marco histórico-cultural que acompañó a estos autores y al idioma. Con lo cual, me atrevería a decir que al estudiar filología hemos añadido el componente del arte al estudio del pensamiento y el componente del pensamiento al estudio del arte. Y hablando de filosofía, voy a tomarme la licencia de usar al recientemente fallecido José Luis Sampedro como referente filosófico. Sampedro solía decir que deberíamos ser educados y preparados para pensar libremente, ya que la libertad de expresión es inútil si no existe libertad de pensamiento. Es decir, sin libertad de pensamiento la libertad de expresión no es más que una copia o reflejo de lo que se nos dice. Por tanto, me gustaría aprovechar esta oportunidad para reivindicar la importancia de estudiar letras y humanidades, especialmente en el mundo en que vivimos, donde parece que solo hay hueco para palabras como “competitividad”, “negocio” o “beneficio”. Creo que ahora es un buen momento para ponerse melancólico. La mayoría de los aquí presentes hemos estado cinco años estudiando en esta facultad. Una facultad que, pese a parecer un cuarto de baño de grandes dimensiones, ha sido nuestra segunda casa y ha visto cómo en ella conocíamos personas maravillosas que acabarían siendo nuestros amigos y amigas para siempre. Y lo de “para siempre” no lo digo por decir, ya que si hemos aguantado cinco años seguidos viéndonos las caras que lucimos a las 8:30 de la mañana, ¿qué no seremos capaces de hacer ahora que el contacto no va a ser tan intenso? Y ahora, tras estos cinco años, que al menos para mí han sido como un parpadeo, nos vemos ante una situación nueva, con muchos posibles caminos que tomar y pocos ofreciendo un futuro esperanzador. Pese a todo, quiero hacer una llamada al optimismo, porque si hemos aguantado cinco años viéndonos las caras que lucimos a las 8:30 de la mañana, ¿qué no seremos capaces de hacer en los próximos años? Querría, antes de terminar, recordar la importancia de seguir luchando en defensa de la educación pública. No es mi intención dar ningún mitin, pero considero que recae en nosotros -alumnos, profesores y familias- la obligación y la responsabilidad de hacer todo lo que esté en nuestra mano para detener este proceso de desmantelamiento de un sistema que, sin ser perfecto, es el que más garantías ofrece y el único que asegura la igualdad de oportunidades. Por tanto, habría que reforzarlo en vez de destruirlo, dando así paso a un sistema elitista. Antes he utilizado el referente filosófico de José Luis Sampedro. Ahora, para concluir el discurso, me gustaría citar a otro gran referente para mí: mi abuela Petra. Hace casi dos años, cuando empezaron las movilizaciones en contra del plan privatizador de la enseñanza en la Comunidad de Madrid, mi abuela me preguntó que a qué venía tanto revuelo. Yo le resumí los motivos de las protestas contándole que, como consecuencia de dicho plan, la escuela pública quedaría reducida a un simple gueto para los alumnos procedentes de familias menos afortunadas, dejando a los colegios privados como receptores de los mayores recursos y privilegios. En definitiva, le dije, de continuar este plan privatizador, para acceder a una educación de calidad habría que pertenecer a una familia más bien adinerada. Tras pensar en ello unos instantes, me respondió con cara de desconcierto: “vaya, entonces todo sería como hace 70 años, cuando yo era joven”. Para ella era fácil deducir que este proceso suponía un flagrante paso atrás. Durante los siguientes minutos me estuvo hablando de cómo solía ser la educación hace unas cuantas décadas y, en un momento determinado, me confesó que para ella había sido muy duro no poder dar a sus hijas la educación que le habría gustado que tuvieran, ya que no se lo podían permitir, y que esa era la gran espina que todavía tenía clavada desde entonces. Es por ello que utilizo los últimos segundos de que dispongo para insistir en la importancia de no resignarse ni rendirse ante esta injusticia. Los miembros de la comunidad educativa debemos responder contundentemente con todos los medios que tengamos para detener este ataque. Sigamos luchando para que la educación siga siendo pública y de calidad y para que no nos quiten lo que hemos ganado. Para demostrar, también, que no pueden insultar a nuestra inteligencia sin tener respuesta. Pero sigamos luchando sobre todo, para que en el futuro no haya más espinas clavadas. Muchas gracias.</t>
   </si>
 </sst>
 </file>
@@ -571,325 +562,674 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A5D942-03C0-43FE-878D-B03196BAFD2B}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" t="s">
         <v>57</v>
       </c>
     </row>

--- a/buko.xlsx
+++ b/buko.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\Shiny-R\prueba_nube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A1B871-F054-4F0F-A977-C613635425DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3D5E59-0C6A-4C3B-85F5-0CBA8685EDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="59">
   <si>
     <t xml:space="preserve">La canción desesperada </t>
   </si>
@@ -565,7 +565,7 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,6 +580,9 @@
       <c r="C1" t="s">
         <v>58</v>
       </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -591,6 +594,9 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -602,6 +608,9 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -613,6 +622,9 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -624,6 +636,9 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -635,6 +650,9 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -646,6 +664,9 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -657,6 +678,9 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -669,6 +693,9 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="M9" s="1"/>
     </row>
@@ -682,6 +709,9 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -693,6 +723,9 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -704,6 +737,9 @@
       <c r="C12" t="s">
         <v>10</v>
       </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -715,6 +751,9 @@
       <c r="C13" t="s">
         <v>11</v>
       </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -726,6 +765,9 @@
       <c r="C14" t="s">
         <v>12</v>
       </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -737,6 +779,9 @@
       <c r="C15" t="s">
         <v>13</v>
       </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -748,8 +793,11 @@
       <c r="C16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -759,8 +807,11 @@
       <c r="C17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -770,8 +821,11 @@
       <c r="C18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -781,8 +835,11 @@
       <c r="C19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -792,8 +849,11 @@
       <c r="C20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -803,8 +863,11 @@
       <c r="C21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -814,8 +877,11 @@
       <c r="C22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -825,8 +891,11 @@
       <c r="C23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -836,8 +905,11 @@
       <c r="C24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -847,8 +919,11 @@
       <c r="C25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -858,8 +933,11 @@
       <c r="C26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -869,8 +947,11 @@
       <c r="C27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -880,8 +961,11 @@
       <c r="C28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -891,8 +975,11 @@
       <c r="C29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -902,8 +989,11 @@
       <c r="C30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -913,8 +1003,11 @@
       <c r="C31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -924,8 +1017,11 @@
       <c r="C32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -935,8 +1031,11 @@
       <c r="C33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -946,8 +1045,11 @@
       <c r="C34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -957,8 +1059,11 @@
       <c r="C35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -968,8 +1073,11 @@
       <c r="C36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -979,8 +1087,11 @@
       <c r="C37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -990,8 +1101,11 @@
       <c r="C38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1001,8 +1115,11 @@
       <c r="C39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1012,8 +1129,11 @@
       <c r="C40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1023,8 +1143,11 @@
       <c r="C41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1034,8 +1157,11 @@
       <c r="C42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1045,8 +1171,11 @@
       <c r="C43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1056,8 +1185,11 @@
       <c r="C44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1067,8 +1199,11 @@
       <c r="C45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1078,8 +1213,11 @@
       <c r="C46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1089,8 +1227,11 @@
       <c r="C47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1100,8 +1241,11 @@
       <c r="C48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1111,8 +1255,11 @@
       <c r="C49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1122,8 +1269,11 @@
       <c r="C50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1133,8 +1283,11 @@
       <c r="C51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1144,8 +1297,11 @@
       <c r="C52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1155,8 +1311,11 @@
       <c r="C53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1166,8 +1325,11 @@
       <c r="C54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1177,8 +1339,11 @@
       <c r="C55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1188,8 +1353,11 @@
       <c r="C56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -1199,8 +1367,11 @@
       <c r="C57" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -1210,8 +1381,11 @@
       <c r="C58" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -1221,8 +1395,11 @@
       <c r="C59" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -1230,6 +1407,9 @@
         <v>57</v>
       </c>
       <c r="C60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" t="s">
         <v>57</v>
       </c>
     </row>

--- a/buko.xlsx
+++ b/buko.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\Shiny-R\prueba_nube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3D5E59-0C6A-4C3B-85F5-0CBA8685EDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3A9384-B084-4E16-9BEF-C23BBC86B420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="64">
   <si>
     <t xml:space="preserve">La canción desesperada </t>
   </si>
@@ -202,6 +202,21 @@
   </si>
   <si>
     <t>tx1</t>
+  </si>
+  <si>
+    <t>tx2</t>
+  </si>
+  <si>
+    <t>tx3</t>
+  </si>
+  <si>
+    <t>tx4</t>
+  </si>
+  <si>
+    <t>tx5</t>
+  </si>
+  <si>
+    <t>tx6</t>
   </si>
 </sst>
 </file>
@@ -565,7 +580,7 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,13 +590,19 @@
         <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -597,6 +618,12 @@
       <c r="D2" t="s">
         <v>0</v>
       </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -611,6 +638,12 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -625,6 +658,12 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -639,6 +678,12 @@
       <c r="D5" t="s">
         <v>3</v>
       </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -653,6 +698,12 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -667,6 +718,12 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -681,7 +738,12 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -696,7 +758,12 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -712,6 +779,12 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -726,6 +799,12 @@
       <c r="D11" t="s">
         <v>9</v>
       </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -740,6 +819,12 @@
       <c r="D12" t="s">
         <v>10</v>
       </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -754,6 +839,12 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -768,6 +859,12 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -782,6 +879,12 @@
       <c r="D15" t="s">
         <v>13</v>
       </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -796,8 +899,14 @@
       <c r="D16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -810,8 +919,14 @@
       <c r="D17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -824,8 +939,14 @@
       <c r="D18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -838,8 +959,14 @@
       <c r="D19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -852,8 +979,14 @@
       <c r="D20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -866,8 +999,14 @@
       <c r="D21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -880,8 +1019,14 @@
       <c r="D22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -894,8 +1039,14 @@
       <c r="D23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -908,8 +1059,14 @@
       <c r="D24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -922,8 +1079,14 @@
       <c r="D25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -936,8 +1099,14 @@
       <c r="D26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -950,8 +1119,14 @@
       <c r="D27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -964,8 +1139,14 @@
       <c r="D28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -978,8 +1159,14 @@
       <c r="D29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -992,8 +1179,14 @@
       <c r="D30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1006,8 +1199,14 @@
       <c r="D31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1020,8 +1219,14 @@
       <c r="D32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1034,8 +1239,14 @@
       <c r="D33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1048,8 +1259,14 @@
       <c r="D34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1062,8 +1279,14 @@
       <c r="D35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1076,8 +1299,14 @@
       <c r="D36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1090,8 +1319,14 @@
       <c r="D37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1104,8 +1339,14 @@
       <c r="D38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1118,8 +1359,14 @@
       <c r="D39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1132,8 +1379,14 @@
       <c r="D40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1146,8 +1399,14 @@
       <c r="D41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1160,8 +1419,14 @@
       <c r="D42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1174,8 +1439,14 @@
       <c r="D43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1188,8 +1459,14 @@
       <c r="D44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1202,8 +1479,14 @@
       <c r="D45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1216,8 +1499,14 @@
       <c r="D46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1230,8 +1519,14 @@
       <c r="D47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1244,8 +1539,14 @@
       <c r="D48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1258,8 +1559,14 @@
       <c r="D49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1272,8 +1579,14 @@
       <c r="D50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1286,8 +1599,14 @@
       <c r="D51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1300,8 +1619,14 @@
       <c r="D52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1314,8 +1639,14 @@
       <c r="D53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1328,8 +1659,14 @@
       <c r="D54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1342,8 +1679,14 @@
       <c r="D55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1356,8 +1699,14 @@
       <c r="D56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -1370,8 +1719,14 @@
       <c r="D57" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -1384,8 +1739,14 @@
       <c r="D58" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -1398,8 +1759,14 @@
       <c r="D59" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -1410,6 +1777,12 @@
         <v>57</v>
       </c>
       <c r="D60" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" t="s">
         <v>57</v>
       </c>
     </row>

--- a/buko.xlsx
+++ b/buko.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\Shiny-R\prueba_nube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3A9384-B084-4E16-9BEF-C23BBC86B420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690DEDFE-F97C-4FAA-BB58-B4F457ED69EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="65">
   <si>
     <t xml:space="preserve">La canción desesperada </t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>tx6</t>
+  </si>
+  <si>
+    <t>tx7</t>
   </si>
 </sst>
 </file>
@@ -580,7 +583,7 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,6 +607,9 @@
       <c r="F1" t="s">
         <v>63</v>
       </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -624,6 +630,9 @@
       <c r="F2" t="s">
         <v>0</v>
       </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -644,6 +653,9 @@
       <c r="F3" t="s">
         <v>1</v>
       </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -664,6 +676,9 @@
       <c r="F4" t="s">
         <v>2</v>
       </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -684,6 +699,9 @@
       <c r="F5" t="s">
         <v>3</v>
       </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -704,6 +722,9 @@
       <c r="F6" t="s">
         <v>4</v>
       </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -724,6 +745,9 @@
       <c r="F7" t="s">
         <v>5</v>
       </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -744,6 +768,9 @@
       <c r="F8" t="s">
         <v>6</v>
       </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -764,6 +791,9 @@
       <c r="F9" t="s">
         <v>7</v>
       </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -785,6 +815,9 @@
       <c r="F10" t="s">
         <v>8</v>
       </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -805,6 +838,9 @@
       <c r="F11" t="s">
         <v>9</v>
       </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -825,6 +861,9 @@
       <c r="F12" t="s">
         <v>10</v>
       </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -845,6 +884,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -865,6 +907,9 @@
       <c r="F14" t="s">
         <v>12</v>
       </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -885,6 +930,9 @@
       <c r="F15" t="s">
         <v>13</v>
       </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -905,8 +953,11 @@
       <c r="F16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -925,8 +976,11 @@
       <c r="F17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -945,8 +999,11 @@
       <c r="F18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -965,8 +1022,11 @@
       <c r="F19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -985,8 +1045,11 @@
       <c r="F20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1005,8 +1068,11 @@
       <c r="F21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1025,8 +1091,11 @@
       <c r="F22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1045,8 +1114,11 @@
       <c r="F23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1065,8 +1137,11 @@
       <c r="F24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1085,8 +1160,11 @@
       <c r="F25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1105,8 +1183,11 @@
       <c r="F26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1125,8 +1206,11 @@
       <c r="F27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1145,8 +1229,11 @@
       <c r="F28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1165,8 +1252,11 @@
       <c r="F29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1185,8 +1275,11 @@
       <c r="F30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1205,8 +1298,11 @@
       <c r="F31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1225,8 +1321,11 @@
       <c r="F32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1245,8 +1344,11 @@
       <c r="F33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1265,8 +1367,11 @@
       <c r="F34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1285,8 +1390,11 @@
       <c r="F35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1305,8 +1413,11 @@
       <c r="F36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1325,8 +1436,11 @@
       <c r="F37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1345,8 +1459,11 @@
       <c r="F38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1365,8 +1482,11 @@
       <c r="F39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1385,8 +1505,11 @@
       <c r="F40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1405,8 +1528,11 @@
       <c r="F41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1425,8 +1551,11 @@
       <c r="F42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1445,8 +1574,11 @@
       <c r="F43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1465,8 +1597,11 @@
       <c r="F44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1485,8 +1620,11 @@
       <c r="F45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1505,8 +1643,11 @@
       <c r="F46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1525,8 +1666,11 @@
       <c r="F47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1545,8 +1689,11 @@
       <c r="F48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1565,8 +1712,11 @@
       <c r="F49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1585,8 +1735,11 @@
       <c r="F50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1605,8 +1758,11 @@
       <c r="F51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1625,8 +1781,11 @@
       <c r="F52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1645,8 +1804,11 @@
       <c r="F53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1665,8 +1827,11 @@
       <c r="F54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1685,8 +1850,11 @@
       <c r="F55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1705,8 +1873,11 @@
       <c r="F56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -1725,8 +1896,11 @@
       <c r="F57" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -1745,8 +1919,11 @@
       <c r="F58" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -1765,8 +1942,11 @@
       <c r="F59" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -1783,6 +1963,9 @@
         <v>57</v>
       </c>
       <c r="F60" t="s">
+        <v>57</v>
+      </c>
+      <c r="G60" t="s">
         <v>57</v>
       </c>
     </row>

--- a/buko.xlsx
+++ b/buko.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\Shiny-R\prueba_nube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690DEDFE-F97C-4FAA-BB58-B4F457ED69EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09A4E32-38CC-49E7-BF60-44847D7CAD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="66">
   <si>
     <t xml:space="preserve">La canción desesperada </t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>tx7</t>
+  </si>
+  <si>
+    <t>tx8</t>
   </si>
 </sst>
 </file>
@@ -583,7 +586,7 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,6 +613,9 @@
       <c r="G1" t="s">
         <v>64</v>
       </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -633,6 +639,9 @@
       <c r="G2" t="s">
         <v>0</v>
       </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -656,6 +665,9 @@
       <c r="G3" t="s">
         <v>1</v>
       </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -679,6 +691,9 @@
       <c r="G4" t="s">
         <v>2</v>
       </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -702,6 +717,9 @@
       <c r="G5" t="s">
         <v>3</v>
       </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -725,6 +743,9 @@
       <c r="G6" t="s">
         <v>4</v>
       </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -748,6 +769,9 @@
       <c r="G7" t="s">
         <v>5</v>
       </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -771,6 +795,9 @@
       <c r="G8" t="s">
         <v>6</v>
       </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -794,6 +821,9 @@
       <c r="G9" t="s">
         <v>7</v>
       </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -818,6 +848,9 @@
       <c r="G10" t="s">
         <v>8</v>
       </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -841,6 +874,9 @@
       <c r="G11" t="s">
         <v>9</v>
       </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -864,6 +900,9 @@
       <c r="G12" t="s">
         <v>10</v>
       </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -887,6 +926,9 @@
       <c r="G13" t="s">
         <v>11</v>
       </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -910,6 +952,9 @@
       <c r="G14" t="s">
         <v>12</v>
       </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -933,6 +978,9 @@
       <c r="G15" t="s">
         <v>13</v>
       </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -956,8 +1004,11 @@
       <c r="G16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -979,8 +1030,11 @@
       <c r="G17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1002,8 +1056,11 @@
       <c r="G18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1025,8 +1082,11 @@
       <c r="G19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1048,8 +1108,11 @@
       <c r="G20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1071,8 +1134,11 @@
       <c r="G21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1094,8 +1160,11 @@
       <c r="G22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1117,8 +1186,11 @@
       <c r="G23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1140,8 +1212,11 @@
       <c r="G24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1163,8 +1238,11 @@
       <c r="G25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1186,8 +1264,11 @@
       <c r="G26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1209,8 +1290,11 @@
       <c r="G27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1232,8 +1316,11 @@
       <c r="G28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1255,8 +1342,11 @@
       <c r="G29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1278,8 +1368,11 @@
       <c r="G30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1301,8 +1394,11 @@
       <c r="G31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1324,8 +1420,11 @@
       <c r="G32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1347,8 +1446,11 @@
       <c r="G33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1370,8 +1472,11 @@
       <c r="G34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1393,8 +1498,11 @@
       <c r="G35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1416,8 +1524,11 @@
       <c r="G36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1439,8 +1550,11 @@
       <c r="G37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1462,8 +1576,11 @@
       <c r="G38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1485,8 +1602,11 @@
       <c r="G39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1508,8 +1628,11 @@
       <c r="G40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1531,8 +1654,11 @@
       <c r="G41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1554,8 +1680,11 @@
       <c r="G42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1577,8 +1706,11 @@
       <c r="G43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1600,8 +1732,11 @@
       <c r="G44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1623,8 +1758,11 @@
       <c r="G45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1646,8 +1784,11 @@
       <c r="G46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1669,8 +1810,11 @@
       <c r="G47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1692,8 +1836,11 @@
       <c r="G48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1715,8 +1862,11 @@
       <c r="G49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1738,8 +1888,11 @@
       <c r="G50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1761,8 +1914,11 @@
       <c r="G51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1784,8 +1940,11 @@
       <c r="G52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1807,8 +1966,11 @@
       <c r="G53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1830,8 +1992,11 @@
       <c r="G54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1853,8 +2018,11 @@
       <c r="G55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1876,8 +2044,11 @@
       <c r="G56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -1899,8 +2070,11 @@
       <c r="G57" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -1922,8 +2096,11 @@
       <c r="G58" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -1945,8 +2122,11 @@
       <c r="G59" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -1966,6 +2146,9 @@
         <v>57</v>
       </c>
       <c r="G60" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60" t="s">
         <v>57</v>
       </c>
     </row>

--- a/buko.xlsx
+++ b/buko.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\Shiny-R\prueba_nube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09A4E32-38CC-49E7-BF60-44847D7CAD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85DA8D2-DE66-41A8-A0E8-3DB4DEC3118F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="62">
   <si>
     <t xml:space="preserve">La canción desesperada </t>
   </si>
@@ -208,18 +208,6 @@
   </si>
   <si>
     <t>tx3</t>
-  </si>
-  <si>
-    <t>tx4</t>
-  </si>
-  <si>
-    <t>tx5</t>
-  </si>
-  <si>
-    <t>tx6</t>
-  </si>
-  <si>
-    <t>tx7</t>
   </si>
   <si>
     <t>tx8</t>
@@ -583,15 +571,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A5D942-03C0-43FE-878D-B03196BAFD2B}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -604,20 +592,8 @@
       <c r="D1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -630,20 +606,8 @@
       <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -656,20 +620,8 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -682,20 +634,8 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -708,20 +648,8 @@
       <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -734,20 +662,8 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -760,20 +676,8 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -786,20 +690,8 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -812,21 +704,9 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -839,20 +719,8 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -865,20 +733,8 @@
       <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -891,20 +747,8 @@
       <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -917,20 +761,8 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -943,20 +775,8 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -969,20 +789,8 @@
       <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -995,20 +803,8 @@
       <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1021,20 +817,8 @@
       <c r="D17" t="s">
         <v>15</v>
       </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1047,20 +831,8 @@
       <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1073,20 +845,8 @@
       <c r="D19" t="s">
         <v>17</v>
       </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1099,20 +859,8 @@
       <c r="D20" t="s">
         <v>18</v>
       </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1125,20 +873,8 @@
       <c r="D21" t="s">
         <v>19</v>
       </c>
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1151,20 +887,8 @@
       <c r="D22" t="s">
         <v>20</v>
       </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1177,20 +901,8 @@
       <c r="D23" t="s">
         <v>21</v>
       </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1203,20 +915,8 @@
       <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1229,20 +929,8 @@
       <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1255,20 +943,8 @@
       <c r="D26" t="s">
         <v>24</v>
       </c>
-      <c r="E26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1281,20 +957,8 @@
       <c r="D27" t="s">
         <v>25</v>
       </c>
-      <c r="E27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1307,20 +971,8 @@
       <c r="D28" t="s">
         <v>26</v>
       </c>
-      <c r="E28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1333,20 +985,8 @@
       <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="E29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1359,20 +999,8 @@
       <c r="D30" t="s">
         <v>28</v>
       </c>
-      <c r="E30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1385,20 +1013,8 @@
       <c r="D31" t="s">
         <v>29</v>
       </c>
-      <c r="E31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1411,20 +1027,8 @@
       <c r="D32" t="s">
         <v>30</v>
       </c>
-      <c r="E32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1437,20 +1041,8 @@
       <c r="D33" t="s">
         <v>31</v>
       </c>
-      <c r="E33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1463,20 +1055,8 @@
       <c r="D34" t="s">
         <v>32</v>
       </c>
-      <c r="E34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1489,20 +1069,8 @@
       <c r="D35" t="s">
         <v>33</v>
       </c>
-      <c r="E35" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1515,20 +1083,8 @@
       <c r="D36" t="s">
         <v>34</v>
       </c>
-      <c r="E36" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1541,20 +1097,8 @@
       <c r="D37" t="s">
         <v>35</v>
       </c>
-      <c r="E37" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1567,20 +1111,8 @@
       <c r="D38" t="s">
         <v>36</v>
       </c>
-      <c r="E38" t="s">
-        <v>36</v>
-      </c>
-      <c r="F38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1593,20 +1125,8 @@
       <c r="D39" t="s">
         <v>37</v>
       </c>
-      <c r="E39" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1619,20 +1139,8 @@
       <c r="D40" t="s">
         <v>38</v>
       </c>
-      <c r="E40" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1645,20 +1153,8 @@
       <c r="D41" t="s">
         <v>39</v>
       </c>
-      <c r="E41" t="s">
-        <v>39</v>
-      </c>
-      <c r="F41" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" t="s">
-        <v>39</v>
-      </c>
-      <c r="H41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1671,20 +1167,8 @@
       <c r="D42" t="s">
         <v>40</v>
       </c>
-      <c r="E42" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" t="s">
-        <v>40</v>
-      </c>
-      <c r="G42" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1697,20 +1181,8 @@
       <c r="D43" t="s">
         <v>41</v>
       </c>
-      <c r="E43" t="s">
-        <v>41</v>
-      </c>
-      <c r="F43" t="s">
-        <v>41</v>
-      </c>
-      <c r="G43" t="s">
-        <v>41</v>
-      </c>
-      <c r="H43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1723,20 +1195,8 @@
       <c r="D44" t="s">
         <v>42</v>
       </c>
-      <c r="E44" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G44" t="s">
-        <v>42</v>
-      </c>
-      <c r="H44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1749,20 +1209,8 @@
       <c r="D45" t="s">
         <v>43</v>
       </c>
-      <c r="E45" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" t="s">
-        <v>43</v>
-      </c>
-      <c r="H45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1775,20 +1223,8 @@
       <c r="D46" t="s">
         <v>44</v>
       </c>
-      <c r="E46" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" t="s">
-        <v>44</v>
-      </c>
-      <c r="H46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1801,20 +1237,8 @@
       <c r="D47" t="s">
         <v>45</v>
       </c>
-      <c r="E47" t="s">
-        <v>45</v>
-      </c>
-      <c r="F47" t="s">
-        <v>45</v>
-      </c>
-      <c r="G47" t="s">
-        <v>45</v>
-      </c>
-      <c r="H47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1827,20 +1251,8 @@
       <c r="D48" t="s">
         <v>46</v>
       </c>
-      <c r="E48" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" t="s">
-        <v>46</v>
-      </c>
-      <c r="G48" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1853,20 +1265,8 @@
       <c r="D49" t="s">
         <v>47</v>
       </c>
-      <c r="E49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F49" t="s">
-        <v>47</v>
-      </c>
-      <c r="G49" t="s">
-        <v>47</v>
-      </c>
-      <c r="H49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1879,20 +1279,8 @@
       <c r="D50" t="s">
         <v>48</v>
       </c>
-      <c r="E50" t="s">
-        <v>48</v>
-      </c>
-      <c r="F50" t="s">
-        <v>48</v>
-      </c>
-      <c r="G50" t="s">
-        <v>48</v>
-      </c>
-      <c r="H50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1905,20 +1293,8 @@
       <c r="D51" t="s">
         <v>49</v>
       </c>
-      <c r="E51" t="s">
-        <v>49</v>
-      </c>
-      <c r="F51" t="s">
-        <v>49</v>
-      </c>
-      <c r="G51" t="s">
-        <v>49</v>
-      </c>
-      <c r="H51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1931,20 +1307,8 @@
       <c r="D52" t="s">
         <v>50</v>
       </c>
-      <c r="E52" t="s">
-        <v>50</v>
-      </c>
-      <c r="F52" t="s">
-        <v>50</v>
-      </c>
-      <c r="G52" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1957,20 +1321,8 @@
       <c r="D53" t="s">
         <v>51</v>
       </c>
-      <c r="E53" t="s">
-        <v>51</v>
-      </c>
-      <c r="F53" t="s">
-        <v>51</v>
-      </c>
-      <c r="G53" t="s">
-        <v>51</v>
-      </c>
-      <c r="H53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1983,20 +1335,8 @@
       <c r="D54" t="s">
         <v>52</v>
       </c>
-      <c r="E54" t="s">
-        <v>52</v>
-      </c>
-      <c r="F54" t="s">
-        <v>52</v>
-      </c>
-      <c r="G54" t="s">
-        <v>52</v>
-      </c>
-      <c r="H54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2009,20 +1349,8 @@
       <c r="D55" t="s">
         <v>53</v>
       </c>
-      <c r="E55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F55" t="s">
-        <v>53</v>
-      </c>
-      <c r="G55" t="s">
-        <v>53</v>
-      </c>
-      <c r="H55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2035,20 +1363,8 @@
       <c r="D56" t="s">
         <v>54</v>
       </c>
-      <c r="E56" t="s">
-        <v>54</v>
-      </c>
-      <c r="F56" t="s">
-        <v>54</v>
-      </c>
-      <c r="G56" t="s">
-        <v>54</v>
-      </c>
-      <c r="H56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -2061,20 +1377,8 @@
       <c r="D57" t="s">
         <v>3</v>
       </c>
-      <c r="E57" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -2087,20 +1391,8 @@
       <c r="D58" t="s">
         <v>55</v>
       </c>
-      <c r="E58" t="s">
-        <v>55</v>
-      </c>
-      <c r="F58" t="s">
-        <v>55</v>
-      </c>
-      <c r="G58" t="s">
-        <v>55</v>
-      </c>
-      <c r="H58" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -2113,20 +1405,8 @@
       <c r="D59" t="s">
         <v>56</v>
       </c>
-      <c r="E59" t="s">
-        <v>56</v>
-      </c>
-      <c r="F59" t="s">
-        <v>56</v>
-      </c>
-      <c r="G59" t="s">
-        <v>56</v>
-      </c>
-      <c r="H59" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -2137,18 +1417,6 @@
         <v>57</v>
       </c>
       <c r="D60" t="s">
-        <v>57</v>
-      </c>
-      <c r="E60" t="s">
-        <v>57</v>
-      </c>
-      <c r="F60" t="s">
-        <v>57</v>
-      </c>
-      <c r="G60" t="s">
-        <v>57</v>
-      </c>
-      <c r="H60" t="s">
         <v>57</v>
       </c>
     </row>

--- a/buko.xlsx
+++ b/buko.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\Shiny-R\prueba_nube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85DA8D2-DE66-41A8-A0E8-3DB4DEC3118F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2238A7B-600F-41B0-BA43-F7F4F107EA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="63">
   <si>
     <t xml:space="preserve">La canción desesperada </t>
   </si>
@@ -210,7 +210,10 @@
     <t>tx3</t>
   </si>
   <si>
-    <t>tx8</t>
+    <t>tx5</t>
+  </si>
+  <si>
+    <t>tx4</t>
   </si>
 </sst>
 </file>
@@ -574,7 +577,7 @@
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F10" sqref="F9:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,6 +593,9 @@
         <v>60</v>
       </c>
       <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -606,6 +612,9 @@
       <c r="D2" t="s">
         <v>0</v>
       </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -620,6 +629,9 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -634,6 +646,9 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -648,6 +663,9 @@
       <c r="D5" t="s">
         <v>3</v>
       </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -662,6 +680,9 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -676,6 +697,9 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -690,6 +714,9 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -704,6 +731,9 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -719,6 +749,9 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -733,6 +766,9 @@
       <c r="D11" t="s">
         <v>9</v>
       </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -747,6 +783,9 @@
       <c r="D12" t="s">
         <v>10</v>
       </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -761,6 +800,9 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -775,6 +817,9 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -789,6 +834,9 @@
       <c r="D15" t="s">
         <v>13</v>
       </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -803,8 +851,11 @@
       <c r="D16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -817,8 +868,11 @@
       <c r="D17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -831,8 +885,11 @@
       <c r="D18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -845,8 +902,11 @@
       <c r="D19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -859,8 +919,11 @@
       <c r="D20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -873,8 +936,11 @@
       <c r="D21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -887,8 +953,11 @@
       <c r="D22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -901,8 +970,11 @@
       <c r="D23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -915,8 +987,11 @@
       <c r="D24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -929,8 +1004,11 @@
       <c r="D25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -943,8 +1021,11 @@
       <c r="D26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -957,8 +1038,11 @@
       <c r="D27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -971,8 +1055,11 @@
       <c r="D28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -985,8 +1072,11 @@
       <c r="D29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -999,8 +1089,11 @@
       <c r="D30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1013,8 +1106,11 @@
       <c r="D31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1027,8 +1123,11 @@
       <c r="D32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1041,8 +1140,11 @@
       <c r="D33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1055,8 +1157,11 @@
       <c r="D34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1069,8 +1174,11 @@
       <c r="D35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1083,8 +1191,11 @@
       <c r="D36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1097,8 +1208,11 @@
       <c r="D37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1111,8 +1225,11 @@
       <c r="D38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1125,8 +1242,11 @@
       <c r="D39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1139,8 +1259,11 @@
       <c r="D40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1153,8 +1276,11 @@
       <c r="D41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1167,8 +1293,11 @@
       <c r="D42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1181,8 +1310,11 @@
       <c r="D43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1195,8 +1327,11 @@
       <c r="D44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1209,8 +1344,11 @@
       <c r="D45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1223,8 +1361,11 @@
       <c r="D46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1237,8 +1378,11 @@
       <c r="D47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1251,8 +1395,11 @@
       <c r="D48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1265,8 +1412,11 @@
       <c r="D49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1279,8 +1429,11 @@
       <c r="D50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1293,8 +1446,11 @@
       <c r="D51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1307,8 +1463,11 @@
       <c r="D52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1321,8 +1480,11 @@
       <c r="D53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1335,8 +1497,11 @@
       <c r="D54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1349,8 +1514,11 @@
       <c r="D55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1363,8 +1531,11 @@
       <c r="D56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -1377,8 +1548,11 @@
       <c r="D57" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -1391,8 +1565,11 @@
       <c r="D58" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -1405,8 +1582,11 @@
       <c r="D59" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -1417,6 +1597,9 @@
         <v>57</v>
       </c>
       <c r="D60" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60" t="s">
         <v>57</v>
       </c>
     </row>

--- a/buko.xlsx
+++ b/buko.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\Shiny-R\prueba_nube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2238A7B-600F-41B0-BA43-F7F4F107EA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CA6E9F-6590-459F-AA00-90F7D05EF257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="82">
   <si>
     <t xml:space="preserve">La canción desesperada </t>
   </si>
@@ -214,6 +214,63 @@
   </si>
   <si>
     <t>tx4</t>
+  </si>
+  <si>
+    <t>El Censo fallido del 2012 y el Censo abreviado del 2017</t>
+  </si>
+  <si>
+    <t>“Es el mejor Censo de la historia”.</t>
+  </si>
+  <si>
+    <t>Esta es la frase que se recuerda hasta hoy y que emitió el ex director del Instituto Nacional de Estadísticas (INE), Francisco Labbé, cuando daba a conocer los detalles del Censo 2012.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 10 años del último Censo, desde el gobierno de Piñera anunciaban con bombos y platillos las novedades que tendría la medición. La principal era que no se iba a realizar un solo día -que se declaraba feriado-, sino que se haría durante dos meses a partir del 9 de abril del 2012. Sin embargo, el proceso terminó extendiéndose por un mes más y concluyó el 15 de julio de ese año.  </t>
+  </si>
+  <si>
+    <t>Pasaron los meses, y a días de que se cumpliera un año del inicio de la medición, dieron a conocer los resultados: la población chilena supuestamente era de 16.634.603.</t>
+  </si>
+  <si>
+    <t>No obstante, la crisis estalló tres semanas después, cuando una investigación de Ciper denunció que Labbé habría manipulado las cifras del Censo. En el texto se precisaba que 15.800.000 fue la población efectivamente censada, mientras que los 16.600.000 fue la población estimada, la que sumaba a los efectivamente censados y moradores ausentes.</t>
+  </si>
+  <si>
+    <t>Uno de los jefes técnicos del INE, en ese entonces indicó que “como el director quería llegar a un 2% de omisión, y no fue así, hizo calzar los datos. Así de simple”.</t>
+  </si>
+  <si>
+    <t>Precisamente, a un día de la publicación del reportaje, Labbé presentó la renuncia a su cargo en medio de cuestionamientos a su gestión.</t>
+  </si>
+  <si>
+    <t>Sigue destapándose el fracaso del proceso</t>
+  </si>
+  <si>
+    <t>Debido a la crisis el gobierno encargó estudios al respecto. En agosto de 2013, una comisión de expertos, ordenada por el propio INE, ratificó errores en el proceso y recomendó rehacerlo en 2015. Además, sostuvieron que la medición no podía ser herramienta para la elaboración de políticas públicas y cuestionaron la perdida de los $30 mil millones que se invirtieron.</t>
+  </si>
+  <si>
+    <t>Pese a ello, el gobierno pidió una evaluación de expertos extranjeros, quienes aconsejaron no repetir el proceso.</t>
+  </si>
+  <si>
+    <t>Ya en septiembre de 2014, el segundo gobierno de Bachelet, revelaron los resultados de un informe liderado por el INE con asesoría del Centro Latinoamericano y Caribeño de Demografía (Celade) dependiente de la Cepal de Naciones Unidas. En sus conclusiones, señalaban que los datos generados no cumplían con los estándares para que el operativo haya sido denominado un Censo. Además, manifestaron que la proyección de población ascendía 17.382.005.</t>
+  </si>
+  <si>
+    <t>Tras el destape de errores del bullado proceso, Piñera pidió “humildemente perdón a todos los chilenos por todos esos errores” y reconoció que “efectivamente se cometieron errores en la planificación y ejecución” del Censo 2012.</t>
+  </si>
+  <si>
+    <t>Finalmente, Ximena Clark, quien en 2014 era la directora del INE, anunció que se realizaría un Censo abreviado, el cual se llevó a cabo el 19 de abril de 2017, tres años después del inicio de la fallida medición.</t>
+  </si>
+  <si>
+    <t>El Censo Abreviado del 2017</t>
+  </si>
+  <si>
+    <t>El XIX Censo Nacional de Población y VIII de Vivienda o Censo de Población y Vivienda 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El cuestionario que se utilizó para aplicar el censo tenía 21 preguntas, divididas en cuatro secciones: A. la identificación de la vivienda, llenada por el censista; B. los datos de la vivienda, de las cuales las dos primeras eran llenadas por el censista, y a partir de la tercera contestaba el jefe(a) de hogar; C. las personas que alojaron la noche anterior en la vivienda; D. los datos de las personas, contestado por cada una de ellas, o en su defecto, por el jefe(a) de hogar. Estas últimas se subdividían en 3 tipos de preguntas: las primeras diez (7-16) estaban dirigidas a todas las personas; las dos siguientes (17 y 18) eran para todas las personas de 15 años o más; y las restantes (19-21) eran solo para las mujeres de 15 años o más. </t>
+  </si>
+  <si>
+    <t>Tuvo versiones en múltiples idiomas: español, mapudungun, inglés, francés, alemán, portugués y creol haitiano. También hubo cuestionarios especiales para personas en tránsito (que se encontraran viajando al momento de realizarse el censo) y para viviendas colectivas (hogares de ancianos, cárceles, hospitales, entre otros).</t>
+  </si>
+  <si>
+    <t>tx6</t>
   </si>
 </sst>
 </file>
@@ -577,7 +634,7 @@
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F9:F10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,6 +655,9 @@
       <c r="E1" t="s">
         <v>61</v>
       </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -615,6 +675,9 @@
       <c r="E2" t="s">
         <v>0</v>
       </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -632,6 +695,9 @@
       <c r="E3" t="s">
         <v>1</v>
       </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -649,6 +715,9 @@
       <c r="E4" t="s">
         <v>2</v>
       </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -666,6 +735,9 @@
       <c r="E5" t="s">
         <v>3</v>
       </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -683,6 +755,9 @@
       <c r="E6" t="s">
         <v>4</v>
       </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -700,6 +775,9 @@
       <c r="E7" t="s">
         <v>5</v>
       </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -717,6 +795,9 @@
       <c r="E8" t="s">
         <v>6</v>
       </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -734,6 +815,9 @@
       <c r="E9" t="s">
         <v>7</v>
       </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -752,6 +836,9 @@
       <c r="E10" t="s">
         <v>8</v>
       </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -769,6 +856,9 @@
       <c r="E11" t="s">
         <v>9</v>
       </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -786,6 +876,9 @@
       <c r="E12" t="s">
         <v>10</v>
       </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -803,6 +896,9 @@
       <c r="E13" t="s">
         <v>11</v>
       </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -820,6 +916,9 @@
       <c r="E14" t="s">
         <v>12</v>
       </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -854,8 +953,11 @@
       <c r="E16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -871,8 +973,11 @@
       <c r="E17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -888,8 +993,11 @@
       <c r="E18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -905,8 +1013,11 @@
       <c r="E19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -922,8 +1033,11 @@
       <c r="E20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -940,7 +1054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -957,7 +1071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -974,7 +1088,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -991,7 +1105,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1008,7 +1122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1025,7 +1139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1042,7 +1156,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1059,7 +1173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1076,7 +1190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1093,7 +1207,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1110,7 +1224,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>

--- a/buko.xlsx
+++ b/buko.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\Shiny-R\prueba_nube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CA6E9F-6590-459F-AA00-90F7D05EF257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CEB535-D748-4BF6-9CF9-5E9C3641AC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="83">
   <si>
     <t xml:space="preserve">La canción desesperada </t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>tx6</t>
+  </si>
+  <si>
+    <t>tx7</t>
   </si>
 </sst>
 </file>
@@ -634,7 +637,7 @@
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,6 +661,9 @@
       <c r="F1" t="s">
         <v>81</v>
       </c>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -678,6 +684,9 @@
       <c r="F2" t="s">
         <v>63</v>
       </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -698,6 +707,9 @@
       <c r="F3" t="s">
         <v>64</v>
       </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -718,6 +730,9 @@
       <c r="F4" t="s">
         <v>65</v>
       </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -738,6 +753,9 @@
       <c r="F5" t="s">
         <v>66</v>
       </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -758,6 +776,9 @@
       <c r="F6" t="s">
         <v>67</v>
       </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -778,6 +799,9 @@
       <c r="F7" t="s">
         <v>68</v>
       </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -798,6 +822,9 @@
       <c r="F8" t="s">
         <v>69</v>
       </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -818,6 +845,9 @@
       <c r="F9" t="s">
         <v>70</v>
       </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -839,6 +869,9 @@
       <c r="F10" t="s">
         <v>71</v>
       </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -859,6 +892,9 @@
       <c r="F11" t="s">
         <v>72</v>
       </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -879,6 +915,9 @@
       <c r="F12" t="s">
         <v>73</v>
       </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -899,6 +938,9 @@
       <c r="F13" t="s">
         <v>74</v>
       </c>
+      <c r="G13" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -919,6 +961,9 @@
       <c r="F14" t="s">
         <v>75</v>
       </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -956,8 +1001,11 @@
       <c r="F16" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -976,8 +1024,11 @@
       <c r="F17" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -996,8 +1047,11 @@
       <c r="F18" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1016,8 +1070,11 @@
       <c r="F19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1036,8 +1093,11 @@
       <c r="F20" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1054,7 +1114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1071,7 +1131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1088,7 +1148,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1105,7 +1165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1122,7 +1182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1139,7 +1199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1156,7 +1216,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1173,7 +1233,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1190,7 +1250,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1207,7 +1267,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1224,7 +1284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>

--- a/buko.xlsx
+++ b/buko.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\Shiny-R\prueba_nube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CEB535-D748-4BF6-9CF9-5E9C3641AC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D579E23-3E5E-48D1-9684-CB383A582B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>

--- a/buko.xlsx
+++ b/buko.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\Shiny-R\prueba_nube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D579E23-3E5E-48D1-9684-CB383A582B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20E1B5F-C220-4009-BA9E-E580FAF5795B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
@@ -637,7 +637,7 @@
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/buko.xlsx
+++ b/buko.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enamo\Desktop\Shiny-R\prueba_nube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20E1B5F-C220-4009-BA9E-E580FAF5795B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F91567-2C3A-4703-9E07-F8B556A978E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="84">
   <si>
     <t xml:space="preserve">La canción desesperada </t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>tx7</t>
+  </si>
+  <si>
+    <t>tx8</t>
   </si>
 </sst>
 </file>
@@ -637,7 +640,7 @@
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,6 +667,9 @@
       <c r="G1" t="s">
         <v>82</v>
       </c>
+      <c r="H1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -687,6 +693,9 @@
       <c r="G2" t="s">
         <v>63</v>
       </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -710,6 +719,9 @@
       <c r="G3" t="s">
         <v>64</v>
       </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -733,6 +745,9 @@
       <c r="G4" t="s">
         <v>65</v>
       </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -756,6 +771,9 @@
       <c r="G5" t="s">
         <v>66</v>
       </c>
+      <c r="H5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -779,6 +797,9 @@
       <c r="G6" t="s">
         <v>67</v>
       </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -802,6 +823,9 @@
       <c r="G7" t="s">
         <v>68</v>
       </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -825,6 +849,9 @@
       <c r="G8" t="s">
         <v>69</v>
       </c>
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -848,6 +875,9 @@
       <c r="G9" t="s">
         <v>70</v>
       </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -872,6 +902,9 @@
       <c r="G10" t="s">
         <v>71</v>
       </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -895,6 +928,9 @@
       <c r="G11" t="s">
         <v>72</v>
       </c>
+      <c r="H11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -918,6 +954,9 @@
       <c r="G12" t="s">
         <v>73</v>
       </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -941,6 +980,10 @@
       <c r="G13" t="s">
         <v>74</v>
       </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -964,6 +1007,9 @@
       <c r="G14" t="s">
         <v>75</v>
       </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1004,8 +1050,11 @@
       <c r="G16" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1027,8 +1076,11 @@
       <c r="G17" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1050,8 +1102,11 @@
       <c r="G18" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1073,8 +1128,11 @@
       <c r="G19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1096,8 +1154,11 @@
       <c r="G20" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1114,7 +1175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1131,7 +1192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1148,7 +1209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1165,7 +1226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1182,7 +1243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1199,7 +1260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1216,7 +1277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1233,7 +1294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1250,7 +1311,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1267,7 +1328,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1284,7 +1345,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
